--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="32565" windowHeight="17505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="32565" windowHeight="17505" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId7"/>
     <sheet name="Stories" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="180">
   <si>
     <t>Initials</t>
   </si>
@@ -566,6 +566,12 @@
   <si>
     <t>coding</t>
   </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
@@ -754,11 +760,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="215200656"/>
-        <c:axId val="215196848"/>
+        <c:axId val="-1069251920"/>
+        <c:axId val="-1069248112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="215200656"/>
+        <c:axId val="-1069251920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,14 +784,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215196848"/>
+        <c:crossAx val="-1069248112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="215196848"/>
+        <c:axId val="-1069248112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215200656"/>
+        <c:crossAx val="-1069251920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8247,8 +8253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8415,7 +8421,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8432,7 +8438,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15577,7 +15583,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23654,7 +23660,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23836,9 +23842,15 @@
       <c r="F8" s="2">
         <v>20</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
+      <c r="G8" s="2">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -23856,9 +23868,15 @@
       <c r="F9" s="2">
         <v>15</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="5"/>
+      <c r="G9" s="2">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -37321,8 +37339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18980" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="180">
   <si>
     <t>Initials</t>
   </si>
@@ -763,11 +763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1963887632"/>
-        <c:axId val="1963889952"/>
+        <c:axId val="-796605504"/>
+        <c:axId val="-795704528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1963887632"/>
+        <c:axId val="-796605504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,14 +787,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963889952"/>
+        <c:crossAx val="-795704528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1963889952"/>
+        <c:axId val="-795704528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963887632"/>
+        <c:crossAx val="-796605504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8256,8 +8256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8373,7 +8373,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8390,7 +8390,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23663,7 +23663,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23805,9 +23805,15 @@
       <c r="F6" s="2">
         <v>35</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -23825,9 +23831,15 @@
       <c r="F7" s="2">
         <v>30</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="5"/>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -37342,7 +37354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -765,11 +765,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1289411152"/>
-        <c:axId val="-1332273168"/>
+        <c:axId val="311283904"/>
+        <c:axId val="275839168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1289411152"/>
+        <c:axId val="311283904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,14 +789,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1332273168"/>
+        <c:crossAx val="275839168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1332273168"/>
+        <c:axId val="275839168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1289411152"/>
+        <c:crossAx val="311283904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8258,8 +8258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A6" zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="B25" sqref="B18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8481,10 +8481,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -8496,10 +8496,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -8661,10 +8661,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
@@ -8751,10 +8751,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
@@ -33853,7 +33853,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33928,10 +33928,10 @@
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -33945,10 +33945,10 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -35028,8 +35028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35172,10 +35172,10 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
@@ -36205,7 +36205,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -36314,10 +36314,10 @@
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -37380,8 +37380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="131" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="179">
   <si>
     <t>Initials</t>
   </si>
@@ -645,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,6 +675,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,11 +766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311283904"/>
-        <c:axId val="275839168"/>
+        <c:axId val="-1550644416"/>
+        <c:axId val="-1550642096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="311283904"/>
+        <c:axId val="-1550644416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,14 +790,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275839168"/>
+        <c:crossAx val="-1550642096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="275839168"/>
+        <c:axId val="-1550642096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311283904"/>
+        <c:crossAx val="-1550644416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8258,8 +8259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="B25" sqref="B18:D25"/>
+    <sheetView zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8519,7 +8520,9 @@
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -8534,7 +8537,9 @@
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -8549,7 +8554,9 @@
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
@@ -8564,7 +8571,9 @@
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -33852,8 +33861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33970,11 +33979,20 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
         <v>40</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -33987,11 +34005,20 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7">
         <v>20</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -34004,6 +34031,9 @@
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D8" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E8">
         <v>10</v>
       </c>
@@ -34020,6 +34050,9 @@
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -35028,7 +35061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="181">
   <si>
     <t>Initials</t>
   </si>
@@ -782,11 +782,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1450774880"/>
-        <c:axId val="-1450772560"/>
+        <c:axId val="374290992"/>
+        <c:axId val="374293312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1450774880"/>
+        <c:axId val="374290992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,14 +806,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1450772560"/>
+        <c:crossAx val="374293312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1450772560"/>
+        <c:axId val="374293312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1450774880"/>
+        <c:crossAx val="374290992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8276,7 +8276,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8672,7 +8672,9 @@
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
@@ -8687,7 +8689,9 @@
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
@@ -15621,14 +15625,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
@@ -23697,7 +23701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -33910,7 +33914,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35209,8 +35213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="192" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35327,11 +35331,17 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
         <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -35344,11 +35354,23 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7">
         <v>20</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36386,7 +36408,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C9"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37561,8 +37583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="215" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="215" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="181">
   <si>
     <t>Initials</t>
   </si>
@@ -572,6 +572,12 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Always sit together and work at one place</t>
+  </si>
 </sst>
 </file>
 
@@ -624,12 +630,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -645,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -674,6 +686,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -765,11 +782,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311283904"/>
-        <c:axId val="275839168"/>
+        <c:axId val="374290992"/>
+        <c:axId val="374293312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="311283904"/>
+        <c:axId val="374290992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,14 +806,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275839168"/>
+        <c:crossAx val="374293312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="275839168"/>
+        <c:axId val="374293312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311283904"/>
+        <c:crossAx val="374290992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8258,8 +8275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="B25" sqref="B18:D25"/>
+    <sheetView zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8459,7 +8476,9 @@
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -8474,7 +8493,9 @@
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -8489,7 +8510,9 @@
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -8504,7 +8527,9 @@
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -8519,7 +8544,9 @@
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -8534,7 +8561,9 @@
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -8549,7 +8578,9 @@
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
@@ -8564,7 +8595,9 @@
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -8639,7 +8672,9 @@
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
@@ -8654,7 +8689,9 @@
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
@@ -15588,14 +15625,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
@@ -23664,8 +23701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23721,6 +23758,9 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E2" s="2">
         <v>20</v>
       </c>
@@ -23747,6 +23787,9 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E3" s="2">
         <v>25</v>
       </c>
@@ -23773,6 +23816,9 @@
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D4" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E4" s="2">
         <v>20</v>
       </c>
@@ -23799,6 +23845,9 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D5" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E5" s="2">
         <v>20</v>
       </c>
@@ -23825,6 +23874,9 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E6" s="2">
         <v>30</v>
       </c>
@@ -23851,6 +23903,9 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E7" s="2">
         <v>20</v>
       </c>
@@ -23877,6 +23932,9 @@
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D8" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E8" s="2">
         <v>30</v>
       </c>
@@ -23902,6 +23960,9 @@
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -33852,14 +33913,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="187" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
     <col min="3" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33902,15 +33963,27 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -33919,15 +33992,27 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -33936,15 +34021,27 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -33953,11 +34050,23 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5">
         <v>30</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -33970,11 +34079,23 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
         <v>40</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -33987,15 +34108,27 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="18" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -34004,11 +34137,23 @@
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D8" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
         <v>20</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -34021,11 +34166,23 @@
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D9" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9">
         <v>20</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34033,24 +34190,52 @@
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35028,8 +35213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="192" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35146,11 +35331,17 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
         <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -35163,11 +35354,23 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7">
         <v>20</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36205,7 +36408,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C9"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37380,8 +37583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="215" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -797,11 +797,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1157954912"/>
-        <c:axId val="1157957232"/>
+        <c:axId val="-1091479440"/>
+        <c:axId val="-1006601776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1157954912"/>
+        <c:axId val="-1091479440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,14 +821,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1157957232"/>
+        <c:crossAx val="-1006601776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1157957232"/>
+        <c:axId val="-1006601776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1157954912"/>
+        <c:crossAx val="-1091479440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8290,8 +8290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15651,8 +15651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15765,7 +15765,10 @@
         <f>SUM(Sprint3!H2:H9)</f>
         <v>200</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6">
+        <f>(D4-D3)/E4*60</f>
+        <v>-96.9</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="185">
   <si>
     <t>Initials</t>
   </si>
@@ -587,6 +587,9 @@
   <si>
     <t>Coming late for meetings</t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
@@ -596,7 +599,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -638,6 +641,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -662,9 +671,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -702,7 +712,8 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -760,6 +771,9 @@
                 <c:pt idx="2">
                   <c:v>42674.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42689.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -777,6 +791,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,11 +814,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1091479440"/>
-        <c:axId val="-1006601776"/>
+        <c:axId val="1092657584"/>
+        <c:axId val="1092659632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1091479440"/>
+        <c:axId val="1092657584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,14 +838,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1006601776"/>
+        <c:crossAx val="1092659632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1006601776"/>
+        <c:axId val="1092659632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1091479440"/>
+        <c:crossAx val="1092657584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1185,7 +1202,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8290,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A9" zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8823,7 +8840,9 @@
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
@@ -8838,7 +8857,9 @@
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
@@ -15651,8 +15672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15771,12 +15792,27 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="5">
+        <v>42689</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUM(Sprint4!G2:G9)</f>
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <f>SUM(Sprint4!H2:H9)</f>
+        <v>35</v>
+      </c>
+      <c r="F5" s="6">
+        <f>(D5-D4)/E5*60</f>
+        <v>-229.71428571428572</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
@@ -36560,8 +36596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView zoomScale="168" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -36678,11 +36714,23 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
         <v>25</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36695,11 +36743,23 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7">
         <v>30</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36712,6 +36772,7 @@
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D8" s="17"/>
       <c r="E8">
         <v>30</v>
       </c>
@@ -37736,8 +37797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="215" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A11" zoomScale="215" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42074,5 +42135,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="443" windowWidth="33600" windowHeight="18660" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="443" windowWidth="33600" windowHeight="18660"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -543,9 +543,6 @@
     <t>https://github.com/Tyranicangel/ssw555</t>
   </si>
   <si>
-    <t>Prabhjot5712</t>
-  </si>
-  <si>
     <t>psingh11@stevens.edu</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>psingh5712</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.17578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1291,10 +1291,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1308,10 +1308,10 @@
         <v>36</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8376,7 +8376,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8393,7 +8393,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8410,7 +8410,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8427,7 +8427,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8444,7 +8444,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8461,7 +8461,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8478,7 +8478,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8495,7 +8495,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8512,7 +8512,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8529,7 +8529,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8546,7 +8546,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8563,7 +8563,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8580,7 +8580,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8597,7 +8597,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8614,7 +8614,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8631,7 +8631,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8648,7 +8648,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8665,7 +8665,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8682,7 +8682,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8699,7 +8699,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8716,7 +8716,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8733,7 +8733,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8750,7 +8750,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8767,7 +8767,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8844,7 +8844,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8861,7 +8861,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23845,7 +23845,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2">
         <v>20</v>
@@ -23860,7 +23860,7 @@
         <v>75</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23874,7 +23874,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2">
         <v>25</v>
@@ -23889,7 +23889,7 @@
         <v>80</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23903,7 +23903,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2">
         <v>20</v>
@@ -23918,7 +23918,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23932,7 +23932,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="2">
         <v>20</v>
@@ -23947,7 +23947,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23961,7 +23961,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
@@ -23976,7 +23976,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23990,7 +23990,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="2">
         <v>20</v>
@@ -24005,7 +24005,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24019,7 +24019,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="2">
         <v>30</v>
@@ -24034,7 +24034,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24048,7 +24048,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -24063,7 +24063,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24155,7 +24155,7 @@
     <row r="18" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="E18" s="2"/>
@@ -24189,7 +24189,7 @@
     <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2"/>
       <c r="E21" s="2"/>
@@ -24201,7 +24201,7 @@
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
@@ -34050,7 +34050,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -34065,7 +34065,7 @@
         <v>50</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34079,7 +34079,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -34094,7 +34094,7 @@
         <v>30</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34108,7 +34108,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -34123,7 +34123,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34137,7 +34137,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -34152,7 +34152,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34166,7 +34166,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -34181,7 +34181,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34195,7 +34195,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -34210,7 +34210,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34224,7 +34224,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -34239,7 +34239,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34253,7 +34253,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -34268,7 +34268,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34291,12 +34291,12 @@
     </row>
     <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34310,7 +34310,7 @@
     </row>
     <row r="23" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -35350,7 +35350,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -35365,7 +35365,7 @@
         <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35379,7 +35379,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -35394,7 +35394,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35408,7 +35408,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -35423,7 +35423,7 @@
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35437,7 +35437,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -35452,7 +35452,7 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35466,7 +35466,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -35481,7 +35481,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35495,7 +35495,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -35510,7 +35510,7 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35524,7 +35524,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -35539,7 +35539,7 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35553,7 +35553,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -35568,7 +35568,7 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -35591,12 +35591,12 @@
     </row>
     <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35610,7 +35610,7 @@
     </row>
     <row r="23" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36599,7 +36599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="168" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="168" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -36684,7 +36684,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -36699,7 +36699,7 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -36713,7 +36713,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -36728,7 +36728,7 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -36742,7 +36742,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -36757,7 +36757,7 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -36771,7 +36771,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -36786,7 +36786,7 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18660" activeTab="6"/>
+    <workbookView xWindow="18740" yWindow="440" windowWidth="14860" windowHeight="18660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="188">
   <si>
     <t>Initials</t>
   </si>
@@ -593,6 +593,12 @@
   <si>
     <t>psingh5712</t>
   </si>
+  <si>
+    <t>Waiting till last day to complete user story.</t>
+  </si>
+  <si>
+    <t>Work user story individually at your own place.</t>
+  </si>
 </sst>
 </file>
 
@@ -817,11 +823,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1482915888"/>
-        <c:axId val="-1483520672"/>
+        <c:axId val="492481728"/>
+        <c:axId val="492484048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1482915888"/>
+        <c:axId val="492481728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,14 +847,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1483520672"/>
+        <c:crossAx val="492484048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1483520672"/>
+        <c:axId val="492484048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1482915888"/>
+        <c:crossAx val="492481728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8310,8 +8316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="182" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8783,7 +8789,9 @@
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
@@ -8798,7 +8806,9 @@
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
@@ -15683,7 +15693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -15814,15 +15824,15 @@
       </c>
       <c r="D5" s="2">
         <f>SUM(Sprint4!G2:G9)</f>
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2">
         <f>SUM(Sprint4!H2:H9)</f>
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="F5" s="6">
         <f>(D5-D4)/E5*60</f>
-        <v>-19.862068965517242</v>
+        <v>-4.8648648648648649</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -35308,7 +35318,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -36607,14 +36617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="179" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
     <col min="3" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36657,11 +36667,23 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="E2">
         <v>25</v>
       </c>
       <c r="F2">
         <v>40</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36674,11 +36696,23 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3">
         <v>35</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36860,24 +36894,50 @@
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37855,8 +37915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="215" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
